--- a/output.xlsx
+++ b/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="List" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -45,21 +45,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
@@ -425,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,38 +475,33 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Nazeka</t>
+          <t>Kate Dolgopolova</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/nazeka-pfvwru-pf~279662903</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>http://</t>
-        </is>
-      </c>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/kate-dolgopolova-pfvwru-pf~1579692968</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr">
         <is>
-          <t>8 (708) 106 1796</t>
+          <t>8 (961) 910-04-80</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>караганда 100000</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr"/>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн детской, Дизайн игровой комнаты, Дизайн кухни, Дизайн прихожей, Дизайн тамбура, План дома, Планировка пространства, Предпродажная подготовка квартиры, Чертежи на заказ</t>
+          <t>Дизайнеры интерьера</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>караганда</t>
+          <t>Оренбург</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
@@ -522,12 +509,12 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Иван</t>
+          <t>Дизайнер интерьера</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ivan-pfvwru-pf~280517091</t>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dizayner-interyera-pfvwru-pf~1455063212</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -537,75 +524,125 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>8 (707) 219 9836</t>
+          <t>79871190240</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Подписчик: 1Подписаться</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr"/>
+          <t>Средняя стоимость работ: 300 - 500 ₽Развернуть</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Здравствуйте! Меня зовут Клара. Я начинающий дизайнер.
+Предлагаю услуги по разработке дизайн-проекта интерьера жилых пространств.
+Выберите подходящий Вам тариф:
+1. Планировочное решение - БЕСПЛАТНО!
+Состав проекта:
+- Составление Технического Задания;
+- Замер, фото-видео фиксация объекта;
+- Обмерный план;
+- Планировочное решение с расстановкой мебели и оборудования (3 варианта) с дальнейшей доработкой выбранного варианта;
+2. Планы - 300 руб/м²
+Состав проекта:
+- Составление Технического Задания;
+- Замер, фото-видео фиксация объекта;
+- Обмерный план;
+- Планировочное решение с расстановкой мебели и оборудования (3 варианта) с дальнейшей доработкой выбранного варианта;
+- Коллажи, концепции;
+- План демонтажа/монтажа перегородок и конструкций;
+- План расстановки мебели;
+- План размещения электрических розеток и выводов;
+- План размещения светильников;
+- Схема включения светильников;
+- План потолков;
+- План напольных покрытий;
+- Развёртки стен всех помещений.
+3. ПОЛНЫЙ ДИЗАЙН-ПРОЕКТ- 500 руб/м²
+Состав проекта:
+- Составление Технического Задания;
+- Замер, фото-видео фиксация объекта;
+- Обмерный план;
+- Планировочное решение с расстановкой мебели и оборудования (3 варианта) с дальнейшей доработкой выбранного варианта;
+- Коллажи, концепции;
+- План демонтажа/монтажа перегородок и конструкций;
+- План расстановки мебели;
+- План размещения электрических розеток и выводов;
+- План размещения светильников;
+- Схема включения светильников;
+- План потолков;
+- План напольных покрытий;
+- Развёртки стен всех помещений.
+- План размещения электрического подогрева пола с привязкой регулятора;
+- Ведомость отделки помещений;
+- 3D визуализации (до 4 ракурсов на помещение);
+- Комплектация (смета).
+Срок разработки дизайн-проекта зависит от проектируемой площади.</t>
+        </is>
+      </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Проект гардеробной, Ремонт квартиры, Ремонт кухни, Украшение дома, Хранение велосипедов, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Энергосберегающий дом</t>
+          <t>Дизайн интерьера, Консультация дизайнера, Планировка пространства</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>Караганда</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Aisulu</t>
+          <t>MaxSam</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/aisulu-pfvwru-pf~187781194</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>http://</t>
-        </is>
-      </c>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/maxsam-pfvwru-pf~2084803237</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr"/>
       <c r="D4" t="inlineStr">
         <is>
-          <t>8 (707) 945 2033</t>
+          <t>8 (912) 344-44-30</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Karaganda 200100</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr"/>
+          <t>Orenburg 460000</t>
+        </is>
+      </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Визуализация интерьера, Выбор мебели, Дизайн ванной комнаты, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Консультация по цвету, План дома, План этажа, Планировка пространства, Проект гардеробной, Энергосберегающие дома</t>
+          <t>Визуализация интерьера</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Karaganda</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Polu</t>
+          <t>Сошникова Елена</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/polu-pfvwru-pf~564408059</t>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/soshnikova-elena-pfvwru-pf~1739371276</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -615,104 +652,6368 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>58555855</t>
+          <t>8 (922) 880-06-50</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Орск 46279763</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr"/>
+          <t>Оренбург 460060</t>
+        </is>
+      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Дизайнеры интерьера</t>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Консультация по цвету, План дома, План этажа, Планировка пространства, Проект гардеробной, Чертежи на заказ, Экодизайн</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Орск</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>Оренбург, Все регионы РФ, Черногория</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>katya_beinik</t>
+          <t>Газукин Алексей</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/katya-beinik-pfvwru-pf~1957664501</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>http://</t>
-        </is>
-      </c>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/gazukin-aleksey-pfvwru-pf~885090133</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr"/>
       <c r="D6" t="inlineStr">
         <is>
-          <t>8 (919) 867-84-08</t>
+          <t>8 (961) 923-94-62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Ясный 644394</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr"/>
+          <t>Оренбург 460051</t>
+        </is>
+      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Дизайнеры интерьера</t>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, План этажа, Планировка пространства, Подбор мебели</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Ясный</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
+          <t>Москва, Оренбург, Санкт-Петербург, Сочи</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Дарья</t>
+          <t>Александр</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/daryya-pfvwru-pf~1512849962</t>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/aleksandr-pfvwru-pf~666326348</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>http://</t>
+          <t>https://vk.com/joused</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>8 (987) 340-17-33</t>
+          <t>8 (932) 545-59-11</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Ясный 3 000</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr"/>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>роспись керамики, зеркал, плитки, основная специализация -зеркала</t>
+        </is>
+      </c>
       <c r="G7" t="inlineStr">
         <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн интерьера, Дизайн спальни</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ3 000 - стоиймость плитки, краски, багетРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Ekaterina Design</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/ekaterina-design-pfvwru-pf~1455030112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8 (922) 844-41-77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Украшение дома</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/yuliya-pfvwru-pf~2083589181</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>8 (909) 184-95-13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Тюмень 460014</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Дизайнеры интерьера</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Ясный</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Тюмень</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>decor</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/decor-pfvwru-pf~1352060019</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8 (912) 343-61-61</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Oren 460006</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Oren</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Татьяна</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/tatyyana-pfvwru-pf~506801368</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7000000000000</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Создаю планировочные решения</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Планировка пространства</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Алина</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/alina-pfvwru-pf~1227907943</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>8 (987) 791-13-00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>ИП Екатерина</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ip-ekaterina-pfvwru-pf~1866480936</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>8 (987) 864-68-20</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 460520</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Сидорова Юлия</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/sidorova-yuliya-pfvwru-pf~1387465770</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>http://www.sidorova-design.ru</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>8 (922) 871-27-23</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Оренбург 460047</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Создание дизайн интерьеров и ландшафта любой сложности. Сопровождение проекта на всех этапах: от проектной части до реализации. Профессиональный подход к проектированию, внимание к деталям.</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн для людей с ограниченной мобильностью, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 400 - 500 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dmitriy-pfvwru-pf~312626610</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>892284063</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Дизайн</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Дизайн полиграфический, рекламный, интерьерный.</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>г. Оренбург</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Подписчиков: 4Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Интерьер Клуб</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/interyer-klub-pfvwru-pf~1545793465</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8 (919) 865-28-08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Пппп</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/pppp-pfvwru-pf~1865578968</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8905000020000</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Robi</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/robi-pfvwru-pf~815616227</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8 (912) 340-23-98</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Оренбург 460036</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Elizaveta Alpatova</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/elizaveta-alpatova-pfvwru-pf~1738203564</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8 (916) 292-88-90</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Москва 460048</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Лыскович Елена</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/lyskovich-elena-pfvwru-pf~944110391</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>8 (922) 888-20-62</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Ремонт квартиры, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Бузулук, Гай, Оренбург, Орск, Соль-Илецк</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ASAP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/asap-pfvwru-pf~1671140958</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>http://asapdesign.ru</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>8 (912) 874-48-40</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Ижевск 460000</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Дизайн-студия AsSoonAsPossible существует на рынке дизайна с 2011 года и объединяет в себе молодых талантливых дизайнеров, работающих в различных творческих направлениях и стилях .</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Виды нашей деятельности включают в себя : 
+Дизайн среды 
+Разработка дизайна жилых, общественных, коммерческих интерьеров. 
+Разработка ландшафта прилегающей территории. 
+Разработка проектов загородных домов и малых архитектурных форм. 
+Разработка экстерьера зданий и сооружений.</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Разработка проектов в таких городах как: Киев, Москва, Ижевск, Казань.</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ190 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lakira</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/lakira-pfvwru-pf~1738340568</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8 (922) 886-66-39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>оренбург 460507</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>оренбург</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Дом1</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dom1-pfvwru-pf~1261049958</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>http://то нро</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>859657</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Оренбург 46</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ARTBOX DESIGN</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/artbox-design-pfvwru-pf~850387158</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>https://vk.com/interior_design_56</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8 (986) 781-56-10</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Дизайн студия ARTBOX на рынке дизайна и архитектуры более 6 лет. Немного о нас: "Мы не раскрашиваем стены, мы создаем уникальную планировку, в которой будет комфортно жить, а уже потом с правильной планировки мы перетекаем в симпатичный дизайн". 
+Второй момент в наше студии высокий уровень владения 3D программами, т.е. картинки которые мы показываем заказчикам приближены к реальности (качественная графика помогает передать все материалы и атмосферу проектируемого интерьера).
+3. Команда специалистов. В нашей команде не просто дизайнеры, а архитекторы, которые намного грамотнее сделают планировку вашей квартиры.
+4. Соблюдение сроков выполнения работ. Вы сможете начать ремонт уже за 8 дней</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Дизайн частного интерьера, Дизайн общественного интерьера, Консультации по выбору мягкой и корпусной мебели</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 390 - 3 000 ₽У нашей студии есть несколько пакетов по направлению дизайна интерьеров. Пакеты были разработаны для того, чтобы мы могли работать с людьми с разным достатком. Подробную информацию узнавайте по телефону +79867815610Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Мастер</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/master-pfvwru-pf~1739040776</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>23641</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Оренбург 421434</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>maria Golovach</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/maria-golovach-pfvwru-pf~1764625923</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>+380 66 139 6026</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Херсон 73026</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Дизайн прихожей, Дизайн развлекательного центра на заказ, Украшение дома, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Умида</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/umida-pfvwru-pf~380741104</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>8 (922) 865-05-25</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Bover</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/bover-pfvwru-pf~817092747</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8 (903) 366-44-80</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Оренбург 460034</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>danil_shindyaev_04</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/danil-shindyaev-04-pfvwru-pf~1328425540</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>8 (922) 625-83-62</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>EKATERINA</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ekaterina-pfvwru-pf~1637305623</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>35322662266</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Оренбург 460028</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>R2 интерьер и архитектура</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/r2-interyer-i-arhitektura-pfvwru-pf~313727254</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>http://rtwo.ru</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>8 (987) 777-89-78</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Интерьер // Архитектура // Макетирование</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Дизайн интерьера</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Сочи</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Подписчиков: 2Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Элеонора Бодня</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/eleonora-bodnya-pfvwru-pf~128257068</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>8 (383) 838-93-93</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Оренбург 46000</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Питербургская студия дизайн</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/piterburgskaya-studiya-dizayn-pfvwru-pf~817812195</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>http://www.houzz.ru</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8 (905) 848-30-78</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Оренбург 460014</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, План дома, План этажа, Планировка пространства, Подбор мебели, Ремонт квартиры, Экодизайн, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>ДекорСтрой</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dekorstroy-pfvwru-pf~1740046240</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>https://dekorstroi.com</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8 (353) 222-05-08</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Оренбург 460056</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Design home MIrina</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/design-home-mirina-pfvwru-pf~381968552</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>8 (922) 886-47-78</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Дизайн ванной комнаты, Дизайн гостиной, Дизайн детской спальни, Дизайн интерьера, Дизайн кухни, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект перепланировки квартиры, Ремонт квартиры, Ремонт кухни, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Оренбург, Кувандык, Медногорск, Самара, Саракташ, Уфа</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Карина</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/karina-pfvwru-pf~1832037849</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>8 (932) 534-81-41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Borodina</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/borodina-pfvwru-pf~1639001847</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>8 (961) 937-96-63</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Оренбург 70007</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>БЮРО ФОРМ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/byuro-form-pfvwru-pf~1579739936</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>http://clc.to/Buroform</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>8 (912) 849-51-71</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>ПОДБОР МАТЕРИАЛОВ. ЭСКИЗЫ ПОМЕЩЕНИЙ
+Команда "БЮРО ФОРМ" рада предложить Вам сотрудничество в разработке дизайна интерьеров.
+Наше умение находить баланс между эстетикой и жесткими требованиями к функциональности объекта позволяет клиентам "БЮРО ФОРМ" реализовывать успешные проекты по строительству отелей, ресторанов, частных и офисных пространств с 2005 г.(ранее "СТУДИЯ ФОРМ").
+Основное творческое  направление "БЮРО ФОРМ" - современный дизайн от эконом до премиум-класса, ориентированный  на современные  тенденции в индустрии дизайна, не забывая и о наследии  советского авангарда, а также создание интерьеров и экстерьеров в стилях минимализм, лофт, хай-тек, и в сочетании этих направлений с классикой.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн и строительство мастерской, План дома, План этажа, Планировка пространства, Ремонт квартиры в новостройке, Чертежи на заказ, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Энергосберегающие дома, Архитектурное проектирование, Архитектурные чертежи, Домик у бассейна под ключ, Евроремонт, Пристройки к дому, Проект дома на заказ, Проектирование конструкций, Проектирование участка, Ремонт квартир</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 600 - 300 000 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Интерьер Стиль</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/interyer-stily-pfvwru-pf~882626749</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8 (903) 392-35-66</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>pronto1971</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/pronto1971-pfvwru-pf~1579154512</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>8 (961) 942-53-79</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>оренбург 460008</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>оренбург</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Супер комнаты</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/super-komnaty-pfvwru-pf~884205589</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>8 (902) 366-60-68</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Оренбург 8888</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Ксения Понятова студия HomeReform</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kseniya-ponyatova-studiya-homereform-pfvwru-pf~632205297</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>http://www.homereform.ru</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>8 (910) 389-16-04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Нижний Новгород 460006</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Мои интерьеры отличаются особой изысканностью, элегантностью и новым авторским видением.
+Идеология моего видения - забыть о стандартах и просто создавать. Именно тогда рождается что-то необычное.
+Я создаю систему, в которой люди существуют. И суть моей работы заключается в том, чтобы контролировать восприятие зрителя. Вот почему для меня так важно учитывать не только сознательные, но и подсознательные процессы.
+Ведь то, как человек чувствует себя в моем пространстве - это 90% успеха всего проекта.
+С такой четкой постановкой цели - как человек должен чувствовать себя в конкретном интерьере, создается емкая концепция.
+Когда все элементы интерьера подчинены одной концепции, создается эффектный, эстетичный и незабываемый образ.
+Создание - это мое призвание.</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>446789</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/446789-pfvwru-pf~154156547</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8 (965) 235-47-81</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Оренбург 33457864</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Кредо</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kredo-pfvwru-pf~1202857960</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>235689</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Оренбург 767577</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BOLDOVA design</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/boldova-design-pfvwru-pf~254146448</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>http://boldovadisign.ru.ru</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>8 (903) 392-56-41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Разработка  и реализация дизайн-проектов частных и общественных помещений, декорирование интерьера.</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Дмитрий</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dmitriy-pfvwru-pf~472978745</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8 (987) 116-14-57</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Оксана</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/oksana-pfvwru-pf~313658318</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>32148</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Оренбург 162891</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Иван</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/ivan-pfvwru-pf~632334737</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>8 (912) 841-65-41</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Оренбург 460009</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/anastasiya-pfvwru-pf~1890632911</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>8 (987) 476-87-02</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Оренбург 460018</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Барг Валерия</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/barg-valeriya-pfvwru-pf~347292833</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/barg.v/?igshid=5m4a9vssq97a</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>8 (951) 034-45-29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Москва/Оренбург/Самара 460000</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн летней кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, Консультация по цвету, Организация хранения в доме на заказ, План дома, План этажа, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Проект гардеробной, Проект перепланировки квартиры, Ремонт квартиры, Ремонт кухни, Украшение дома, Хранение велосипедов, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Энергосберегающий дом, Выбор мебели, Дизайн  лоджии, Дизайн гардеробной, Дизайн детской, Дизайн тамбура, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Москва/Оренбург/Самара</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 2 200 - 3 200 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Аделя</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/adelya-pfvwru-pf~506998348</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>8 (922) 551-04-21</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Оренбург 460038</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация по цвету, Планировка пространства, Проект гардеробной, Украшение дома, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Лера Воробьева</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/lera-vorobyeva-pfvwru-pf~506479004</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/vorobushkina_design/</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>8 (919) 856-51-16</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Оренбург 460040</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн прихожей, Дизайн спальни, Планировка пространства, Подбор мебели, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Казань, Новотроицк, Орск</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 800 - 1 200 ₽Конечная стоимость услуг зависит от необходимого состава дизайн-проекта и площади вашего объектаРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Аааа</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/aaaa-pfvwru-pf~1353695567</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>222222</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/anastasiya-pfvwru-pf~884244733</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/nastasia_design1092/</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>8 (903) 398-21-75</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>Проектирование и дизайн жилых и общественных помещений.
+Создаю уютные интерьеры. 
+Индивидуальный подход к каждому проекту.</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, Планировка пространства, Подбор мебели, Проект гардеробной, Украшение дома, Экодизайн, Элитный ремонт, Дизайн  лоджии, Дизайн тамбура, Домашний бар на заказ, Ремонт квартиры в новостройке</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Уфа, Казань, Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 800 - 2 000 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>SAM project</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/sam-project-pfvwru-pf~2117049548</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>https://ukit.com/preview/samproject</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>8 (932) 555-26-62</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>Мы создаем интерьер для счастливой жизни. Задача нашей студии, пройти вместе с вами весь пусть, от создание идеи,до реализации и получения восторга от красивого и функционального дизайна. Разработав дизайн проект, мы поможем вам подобрать материалы, мебель, элементы декора и многое и многое другое.</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн жалюзи и занавесок на заказ, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Кухонные шкафы на заказ, Мебель на заказ, Модульная мебель на заказ, План дома, План этажа, Планировка пространства, Полки на заказ, Ремонт квартиры в новостройке, Ремонт кухни</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Оренубург</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 600 - 1 500 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>«Дизайн-студия Лотос»</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dizayn-studiya-lotos-pfvwru-pf~1009925277</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>http://ella-ignat.ru</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>8 (903) 360-53-00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Оренбург 460048</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Мы уже 16 лет занимаемся разработкой дизайна интерьеров, большой опыт работ, команда.</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Дизайн проект интерьера «полный» - планировка, эскизы 3D, чертежи, подбор материалов; «частичный + » - планировка , эскизы 3D; «частичный» - планировка.</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Вся страна</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 250 - 1 500 ₽В зависимости от стиля : 
+«Простой» - 800р(полный),450р(частичный+), 250р (частичный)
+«Популярный» - 1000р ( полный ), 550р( частичный +), 300р ( частичный ), 
+«Премиум» - 1500р(полный ), 850р( частичный +), 350р ( частичный)Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Студия интерьерного дизайна "LaTTe"</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/studiya-interyernogo-dizayna-latte-pfvwru-pf~1705060313</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>8 (922) 829-83-97</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Основа любого проекта - индивидуальность клиента, ведь каждая квартира носит уникальный характер своих обладателей, а каждое заведение требует оригинальный интерьер, с соответствующей концепцией. Каждый новый проект начинаю с нуля, никаких готовых разработок, шаблонов или «замыленных» идей - индивидуальность для меня не пустое слово. Развиваю в себе  богатую фантазию и неуемный креатив, что позволяют никогда не повторяться.</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, План дома, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Ремонт квартиры, Ремонт кухни, Украшение дома, Экодизайн, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>Подписчиков: 4Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Надежда</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/nadezhda-pfvwru-pf~1765094767</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>222222</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Оренбург 402030</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>EKATERINA SOKIRO DESIGN</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/ekaterina-sokiro-design-pfvwus-pf~1577927500</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>8 (922) 844-41-77</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн ванной комнаты, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн развлекательного центра на заказ, Консультация по цвету, План дома, План этажа, Планировка пространства, Украшение дома, Чертежи на заказ, Картины маслом в интерьер на заказ, изготовление предметов декора в интерьер, составление флористических композиций</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Ампир</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ampir-pfvwru-pf~1831401937</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>8 (906) 848-40-40</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kseniya Shi Decor</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kseniya-shi-decor-pfvwru-pf~1831955529</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>8 (909) 602-04-02</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Создаю интерьеры. 
+Текстильный декор Вашего дома. 
+Декорирую пространства. 
+Создаю дизайн интерьера по фэншуй</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн прихожей, Дизайн тамбура, Консультация по цвету, Мебель на заказ, Планировка пространства, Украшение дома, декор интерьера, комплектация интерьеров, комплектация отделочные материалы, предметы интерьера на заказ, изготовление авторских малых форм</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Оренбург, Екатеринбург, Москва, Самара, Казахстан</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Дизайн студия Ксении Фисун  |  KF studio design</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dizayn-studiya-ksenii-fisun-kf-studio-design-pfvwru-pf~566154919</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>8 (903) 395-07-53</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Создаем и реализуем авторский дизайн-проект в любой стилистике.
+Восьмилетний опыт работы в создании и реализации дизайн-проектов.</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гостиной, Дизайн детской спальни, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Краснодар, Крым, Москва, Оренбург, Санкт-Петербург, Сочи</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Квартирный ремонт</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kvartirnyy-remont-pfvwru-pf~1764790035</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>8 (902) 248-98-66</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Крафт Салон</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kraft-salon-pfvwru-pf~1705384217</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>http://craft-salon.ru</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>8 (922) 625-72-53</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн жалюзи и занавесок на заказ, Дизайн игровой комнаты, Дизайн кладовок, Дизайн кухни, Дизайн освещения, Дизайн развлекательного центра на заказ, Домашний бар на заказ, Книжные шкафы на заказ, Консультация по цвету, Кухонные шкафы на заказ, Мебель на заказ, Облицовка камина, План дома, План этажа, Планировка пространства, Полки на заказ, Проект гардеробной, Ремонт кухни, Туалетный столик на заказ, Украшение дома, Чертежи на заказ, Шкафы на заказ, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ1 000 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Cherepanova Evgeniya</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/cherepanova-evgeniya-pfvwru-pf~2082822961</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>https://www.behance.net/CHJanedesigner</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>8 (987) 877-84-90</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Оренбург 460018</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>Я дизайнер интерьера частных и общественных пространств. Опыт работы в создании и реализации проектов более 10 лет. Все созданные мною проекты полностью реализуемы. Главным моим отличием является то, что я не создаю конвеерный дизайн, каждый мой проект, это отражение заказчиков, через меня.</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн летней кухни, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Проект гардеробной, Проект перепланировки квартиры, Ремонт квартиры, Ремонт кухни, Украшение дома, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Казань, Екатеренбург, Республика Казахстан</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 0 - 1 500 ₽Планировка - 500 р/м2
+Дизайн-проект - 1500 р/м2Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Даша</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dasha-pfvwru-pf~1956763873</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>8 (987) 341-50-04</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Оренбург 4600058</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>interior design studio</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/interior-design-studio-pfvwru-pf~1355071995</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>8 (905) 880-14-11</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Оренбург 460060</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Ремонт квартиры, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Казань, Краснодар, Крым, Москва, Оренбург, Самара, Сочи, Сургут, Тюмень, Уфа</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>GRAZFO</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/grazfo-pfvwru-pf~1514059582</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>8 (922) 827-05-41</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 500 - 1 000 ₽Разработка дизайн проекта включает:
+-план обмеров
+-план расстановки мебели
+-план пола
+-план потолка
+-план плинтусов
+-план электрики
+-план освещения
+-план водоснабжения и канализации
+-развёртки по стенам
+-3D визуализации
+-рекомендации, для приобретения составляющих дизайн-проекта
+После согласования всех планов, мы составляем альбом, печатаем его и отдаём вам с окончательной оплатой.Развернуть</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>Нас зовут Александра и Александра
+Наша встреча, дружба, совместная работа - доказательство того, что мы способны сами притянуть к себе людей, которых желаем встретить в этой жизни
+GRAZFO является нашим общим делом, которым мы горим
+Мы представляем сферу интерьерного дизайна и поможем Вам организовать комфортное, многофункциональное пространство, в котором будут реализованы все Ваши пожелания
+По окончании нашего приятного сотрудничества вы получаете альбом с комплектом чертежей, 3D-визуализация</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн летней кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Проект перепланировки квартиры, Элитный ремонт, "Red" room</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Оренбург, Екатеринбург, Казань, Краснодар, Москва, Самара, Санкт-Петербург, Сочи, Уфа, Челябинск, Пенза, Нижний Новгород</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Дизайнер интерьера, Krasnovid Design</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dizayner-interyera-krasnovid-design-pfvwru-pf~2016635659</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>http://krasno.in.ua</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>+380 95 761 6724</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Херсон 73039</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Krasnovid Design - дизайн студия с комплексным подходом. Мы предоставляем услуги проектирования, визуализации дизайна помещений, а также комплектация объекта мебелью. При наличии собственного производства мебели, вы получаете очень выгодные условия, ценовую политику и грамотный дизайн.</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Домашний спортзал под ключ, Кухонные шкафы на заказ, Мебель на заказ, Модульная мебель на заказ, План дома, Проект гардеробной, Чертежи на заказ, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Херсон, Украина</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 25 USD - 35 USDLite пакет включает в себя - планировочные решения, альбом чертежей, визуализацию проекта.
+Full пакет включает в себя - планировочные решения, альбом чертежей, визуализацию проекта, авторский надзор.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Стайлинг</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/stayling-pfvwru-pf~1545272313</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>874239600</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Херсон 73030</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>OLGA_BARANOVA</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/olga-baranova-pfvwru-pf~254017184</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>http://olga-architect-oth.wixsite.com/baranovaolga</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>8 (922) 556-23-46</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Оренбург 460047</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн кухни, План дома, План этажа, Планировка пространства, Чертежи на заказ, Экодизайн, Архитектурное проектирование, Архитектурные чертежи, Проект дома на заказ</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ200 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Anna Kurmanaeva</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/anna-kurmanaeva-pfvwru-pf~278502943</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>8 (922) 625-45-84</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Orenburg 460008</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кладовок, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Консультация по цвету, План дома, План этажа, Планировка пространства, Проект гардеробной, Ремонт квартиры в новостройке, Ремонт кухни, Украшение дома, Чертежи на заказ, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Orenburg, Самара, Уфа, Орск, Новотроицк, Бузклук</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Davydoff</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/davydoff-pfvwru-pf~311948834</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>8 (922) 812-35-45</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Оренбург 460003</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Привет</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/privet-pfvwru-pf~279488371</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>556247865</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Екатерина</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ekaterina-pfvwru-pf~756853469</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>8 (987) 781-49-24</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Оренбург 462364</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Марина Будылина</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/marina-budylina-pfvwru-pf~566215755</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>http://budylina.design.tilda.ws/</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>8 (909) 601-19-19</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн летней кухни, Дизайн прихожей, Дизайн спальни, План дома, План этажа, Планировка пространства, Проект перепланировки квартиры</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Оренбург, Екатеринбург, Москва, Санкт-Петербург, Новосибирск, Краснодар</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 300 - 1 500 ₽Планировочное решение - 300 р./м2
+Визуализация 3d - 400 р./м2
+Комплект чертежей - 300 р./м2
+Полный дизайн-проект - 1500 р./м2
+Дизайн-проект пакет "Лайт" - 1000 р./м2Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Студия</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/studiya-pfvwru-pf~221448841</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>929741</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>Оренбург 460055</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Fine</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/fine-pfvwru-pf~1102221879</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>525</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Orenburg Rry</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>YASKA design bureau</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/yaska-design-bureau-pfvwru-pf~1888586739</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>http://yaska.pro</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>8 (903) 398-80-61</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Оренбург 460050</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Проектное бюро YASKA специализируется на создании и реализации проектов различного назначения: от дизайна частных объектов до масштабных архитектурных проектов.
+Основная задача - это целостный подход к созданию проекта, от появления идеи до воплощения в жизнь. Мы опираемся на опыт зарубежных бюро, и предлагаем полный цикл управления проектом. Его главная задача - минимизация финансовых и временных издержек. Мы берём на себя весь объём работ со специалистами и подрядчиками, организуем поставку высококачественных материалов для выполнения отделочных работ. 
+Фундамент бюро YASKA - это молодая амбициозная команда архитекторов, дизайнеров и инженеров, которые имеют опыт в создании и реализации проектов различной сложности.
+Каждый новый проект - это рождение уникального пространства со своими особенностями и конкретными целями, отражающий современный стиль и эстетику.
+Нас вдохновляет то, что мы делаем.
+Мы готовы к новым проектам и горизонтам.
+Если Вы не близко - это не проблема, это география будущей работы.
+Мы уже успели поработать и хотим дальше в г.Оренбурге, г.Орск, г.Аксай, г.Уральск, г. Самара, г. Уфа, г. Москва, г. Санкт-Петербург.
+Будем рады встречи в офисе: г. Оренбург ул. Володарского д.22 оф.23
+А если нет времени для встречи, то мы на связи e-mail: yaska.aleksey@gmail.com</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн детской спальни, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Домашний спортзал под ключ, План дома, План этажа, Планировка пространства, Предпродажная подготовка квартиры, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Ремонт квартиры в новостройке, Дизайн гардеробной, Дизайн детской, Дизайн развлекательного центра на заказ, Мебель на заказ, Чертежи на заказ, Архитектурное проектирование, Архитектурные чертежи, Проект дома на заказ, Проектирование участка, Ремонт квартир, Ремонт фасада, Реставрация домов и квартир, Строительство нового дома, Комплектация по проекту, Управление проектом</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Аксай, Санкт-Петербург, Орск</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 000 - 1 500 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Marina Toropova</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/marina-toropova-pfvwru-pf~405038507</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>8 (999) 109-66-76</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Николай ПарсекПро</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/nikolay-parsekpro-pfvwru-pf~2084328761</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>79774481152</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Москва 460000</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Виппви</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/vippvi-pfvwru-pf~1924391126</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>8 (922) 612-34-56</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Москва 460000</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Москва</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Екатеринп</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ekaterinp-pfvwru-pf~1009793017</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>http://контакт</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>8 (922) 625-71-99</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Оренбург 460044</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>ФилипповDesign</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/filippovdesign-pfvwru-pf~219596409</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>http://fil-design.ru/</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>8 (903) 367-41-34</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Оренбург 460021</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Студия современного дизайна «Филиппов Дизайн», учитывая всесторонние направления в дизайне и архитектуре, создает уникальное сочетание красоты и функциональности, инноваций и традиций, всего, что делает людей счастливей, а окружающий мир красивее.
+Объединение идей, технологий, а главное творческих людей обеспечивает абсолютную эффективность всем участникам партнерства.</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Консультация специалиста компании с выездом на объект для предварительных замеров;
+    Анимация и 3d моделирование для презентаций компаний;
+    3d тур по вашему дому;
+    Декорирование. Подбор и наполнение готового пространства оборудованием и предметами декора;
+    Художественные работы. Панно, настенная роспись, мозаика, живопись, рисунок;
+    Авторский надзор при реализации объекта</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Оренбургская обл. Москва</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
+        <is>
+          <t>Подписчиков: 5Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>проспект Дизайна</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/prospekt-dizayna-pfvwru-pf~1704454129</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/prospect_design_orenburg/</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>8 (961) 906-84-80</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Оренбург 460009</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Мы разрабатываем комплексные интерьерные решения по доступным ценам.
+группа ВК &lt;a rel="nofollow noopener noreferrer" target="_blank" href="https://vk.com/design_oren"&gt;https://vk.com/design_oren&lt;/a&gt;
+instagram: &lt;a rel="nofollow noopener noreferrer" target="_blank" href="https://www.instagram.com/prospect_design_orenburg/"&gt;https://www.instagram.com/prospect_design_orenburg/&lt;/a&gt;</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн интерьера, Планировка пространства</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ350 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Эдуард Александрович</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/eduard-aleksandrovich-pfvwru-pf~186943418</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>8 (952) 047-24-88</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Boston 460006</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Boston</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Евгения Познахарева</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/evgeniya-poznahareva-pfvwru-pf~1102316171</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>8 (980) 351-34-41</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Оренбург 460040</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Дизайн интерьера</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Сухоручкин Сергей</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/suhoruchkin-sergey-pfvwru-pf~1480089179</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/sukhoruchkin_design</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>79096037237</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Опыт работы более 5 лет
+ Создаю и воплощаю комфортные интерьеры для дома и бизнеса
+ Работаю удаленно по России
+ 8 (909) 603 72 37</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн летней кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация по цвету, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Проект перепланировки квартиры, Ремонт квартиры, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Санкт-Петербург, Уфа, Казань, Екатеринбург, Самара, Орск, Бузулук, Краснодар</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 600 - 1 600 ₽Стоимость дизайн-проекта указана за м2Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Сидорова Юлия</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/sidorova-yuliya-pfvwru-pf~1009978405</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>https://www.behance.net/juliasidorova</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>8 (922) 871-27-23</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Оренбург 460047</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Проектирование частных и коммерческих интерьеров. Опыт реализации "под ключ"</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Консультация дизайнера, Планировка пространства</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 000 USD - 2 000 USDРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Света</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/sveta-pfvwru-pf~1010026161</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>8 (922) 885-56-61</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Самара 460000</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Самара</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Олеся Прилежаева</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/olesya-prilezhaeva-pfvwus-pf~277903723</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>http://prilezhaeva.ru/</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>8 (903) 398-86-95</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Интерьеры "под ключ". От идеи до воплощения.
+ВЕСЬ СПЕКТР УСЛУГ ПО СОЗДАНИЮ ВАШЕГО ИНТЕРЬЕРА.</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн летней кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Проект гардеробной, Проект перепланировки квартиры, Ремонт квартиры, Ремонт кухни, Украшение дома, Хранение велосипедов, Экодизайн, Элитный ремонт, Консультации, Планировочное решение</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Оренбург, По всему миру дистанционно</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 700 - 1 500 ₽Стоимость работы зависит от стиля, количества помещений и глубины проработки (состава) проекта.
+Дизайн-проект интерьера - от 700 руб./кв.м
+Авторский надзор - от 8000 руб. в месяц.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Татьяна Сафарова</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/tatyyana-safarova-pfvwru-pf~758928589</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>8 (922) 838-43-83</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>▪️Разработаю функциональный и уютный интерьер под ваш бюджет
+▪️Создам интерьерную 3D визуализацию
+▪️Работаю удалённо, всегда online❤️</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Дизайнер-художник Кристина Дедова</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dizayner-hudozhnik-kristina-dedova-pfvwru-pf~1547444761</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>8 (987) 194-50-58</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 900 - 1 300 ₽Развернуть</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Меня зовут Кристина, с 2013 года профессионально занимаюсь художественным оформлением интерьера от замысла до полного воплощения и оказываю услуги по декорированию интерьера. 
+Считаю, что лучшие интерьеры это те, что будут актуальны в любые времена, невзирая на быстрое течение моды и современные тренды.
+Моя задача – создать внутренний мир дома, исходя из характера, стиля и образа жизни владельца. Но для каждого жилого интерьера я стараюсь придумать свою историю и свою интригу. Помогают мне в этом предметы, которые могут весьма красноречиво рассказать о своих хозяев.
+Дизайн для меня – это философия жизни. В доме с хорошем интерьером всегда чувствуется радостное настроение, с которым живут его владельцы. Роль дизайнера в этом случае – это роль художника, который легким касанием своей кисточки создает правильную атмосферу для своих заказчиков.</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн летней кухни, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Консультация по цвету, Планировка пространства, Подбор мебели, Проект гардеробной, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Оренбург, Сочи, Москва, Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>ольга</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/olyga-pfvwru-pf~689320123</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>8 (922) 538-07-41</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Оренбург 460036</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Дизайнер интерьеров</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, План дома, Ремонт кухни, Услуги частного прораба, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
+        <is>
+          <t>Подписчиков: 17Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Кристина Петрова</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kristina-petrova-pfvwru-pf~1739558464</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>8 (909) 607-66-67</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Оренбург Нет</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Дизайнер интерьера, 3D визуализатор</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Планировка пространства, Проект гардеробной, Украшение дома, Дизайн  лоджии, Дизайн гардеробной, Дизайн детской, Домашний бар на заказ</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Интерьер</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Туманова Юлия</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/tumanova-yuliya-pfvwru-pf~61448202</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>http://56tuman.houzz.ru</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>8 (961) 947-81-67</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Оренбург 460050</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн жалюзи и занавесок на заказ, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Домашний бар на заказ, Домашний спортзал под ключ, Книжные шкафы на заказ, Ковры/коврики на заказ, Консультация по цвету, Кухонные шкафы на заказ, Мебель на заказ, Модульная мебель на заказ, Облицовка камина, План дома, План этажа, Планировка пространства, Полки на заказ, Предпродажная подготовка квартиры, Проект гардеробной, Ремонт квартиры в новостройке, Ремонт кухни, Туалетный столик на заказ, Украшение дома, Услуги частного прораба, Хранение велосипедов, Хранение спортивного инвентаря, Шкаф-кровать на заказ, Шкафы на заказ, Экодизайн, Экологичное (зеленое) строительство, Энергосберегающие дома, Дизайн кладовок, Евроремонт, Интерьерная фотосъемка</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Бузулук, Самара, Уфа, Казахстан</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
+        <is>
+          <t>Подписчиков: 9Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Riger</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/riger-pfvwru-pf~1891368879</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>https://vk.com/riger01</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>79873401318</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Orenburg 460000</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Дизайнер-среды моя специальность включает в себя: проектирование квартир , дизайн ландшафтных зон , как парков, садов так же и частных домов , входит в мою работу и графические работы . Работаю в этой сфере 5 лет , а обучаюсь 13 лет .</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Студия дизайна Full House</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/studiya-dizayna-full-house-pfvwru-pf~1764040339</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>http://ds-full-house.ru/</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>8 (922) 620-70-30</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Оренбург 460047</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Full House design studio - это творческий союз Семёна и Владислава, олицетворяющий сочетание рациональности и творчества, концепции 
+и точного расчёта. Умение взглянуть на проект с разных точек зрения, позволяет создавать продуманные, стильные интерьеры. 
+В современном дизайне, в первую очередь ценится комфорт.  Теперь мы не проектируем многоуровневые потолки для того что бы "удивить соседей". Когда у тебя есть возможность проектировать то, что нужно клиенту  и не отказываться от своих принципов, это и есть гармония.  Наш дизайн становиться проще и понятней. Работа с разными объектами и бюджетом, даёт возможность получение нового опыта и расширения границ. С каждым годом мы видим все больше перспектив в работе дизайнера.  Наша работа очень близка к технологиям. Совсем недавно,  мы открыли для себя VR. Теперь мы презентуем дизайн проект не только в эскизном формате, но и создаем VR тур. Это создает максимальное погружение в проект.</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация по цвету, План дома, План этажа, Планировка пространства, Украшение дома, Экодизайн, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Оренбург, Санкт-Петербург</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 000 - 2 500 ₽Стоимость дизайн проекта зависит от площади помещения или участка. В дизайн проект состоит из 3 основных частей: эскизы(визуализация), рабочие чертежи, спецификация материалов, мебели и освещения. Для точного расчета стоимости проекта необходимо связаться с менеджером по телефону или отправить запрос на почту my-full-house@mail.ruРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Виктор Харитонов</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/viktor-haritonov-pfvwru-pf~438087494</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>http://www.instagram.com/viktor_pro_design</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>8 (353) 297-49-55</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Оренбург 460021</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Занимаюсь дизайном в сфере Архитектуры и Дизайна интерьеров, мебели. ТЕХнадзор, авторский надзор за ведением строительных и отделочных работ. Сопровождение. Визуализация. Член Союза дизайнеров России.</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн и строительство застекленной террасы, Дизайн интерьера, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План дома, План этажа, Подбор мебели, Проект гардеробной, Ремонт квартиры, Ремонт кухни, Хранение велосипедов, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Энергосберегающий дом, Архитектурное проектирование, Архитектурный дизайн, Пристройки к дому, Проект дома на заказ, Ремонт домов и квартир, Разработка дизайн-проектов, с сфере архитектуры и интерьеров, от стадии концепции до полной материальной реализа</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Оренбург, по всей России, включаю международные проекты., Башкортостан, Москва, Московская область, Екатеринбург</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 200 - 6 000 ₽Стоимость определяется в зависимости от стилистики, сроков, состава проекта.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>e.l.design.studio</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/e-l-design-studio-pfvwru-pf~405604735</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/l.e.design.studio/</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>8 (987) 790-85-72</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Студия интерьера E.L.Design
+Разрабатываем дизайн частных и общественных пространств.
+Шестилетний опыт работы в создании и реализации дизайн-проектов, помогает нам экономить ваше время, деньги и нервы!
+Есть своя надежная бригада, вам не придется искать непроверенных подрядчиков.
+При разработке проектов учитываются пожелания и интересы заказчика, ведь каждый интерьер - это отражение характера его хозяина.
+Готовы к смелым и интересным задачам!
+Работаем в Оренбургской области, а так же имеем большой опыт удалённой работы.</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Санкт-Петербург, Самара, Уфа, Челябинск, Аксай, Актобе, Ярославль, Сочи, Крым, Краснодарский край</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 800 - 2 000 ₽Стоимость дизайн-проекта зависит от пакета услуг входящих в негоРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Радик Каюмов</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/radik-kayumov-pfvwus-pf~1384767510</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>http://kayumovradik.ru</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>8 (922) 558-81-08</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Дизайн жилых интерьеров и  общественных интерьеров, СПА салоны и фитнес-клубы, архитектурное проектирование.</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн и строительство застекленной террасы, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Ремонт квартиры, Ремонт кухни, архитектурное проектирование</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Уфа, Новосибирск, Самара</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 200 - 1 500 ₽квадратный метрРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Ирина</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/irina-pfvwru-pf~1738024760</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>http://irishka5669.houzz.ru</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>8 (903) 392-02-25</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Оренбург 460005</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Разработка дизайн проектов для жилых и нежилых помещений. Свою работу над любым проектом  люблю начинать с самого сложного момента, превращая его в неоспоримое достоинство. Большой опыт работы с кафе, ресторанами, гостиницами и концептуальными салонами.</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн прихожей, Дизайн спальни, Консультация по цвету, Планировка пространства, Украшение дома, Экодизайн, Дизайн  лоджии, Мебель на заказ, Дизайн детской, Дизайн развлекательного центра на заказ, Книжные шкафы на заказ, Кухонные шкафы на заказ, Модульная мебель на заказ, Полки на заказ</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ500 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>БЮРО СТЕПЬ</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/byuro-stepy-pfvwru-pf~1547771149</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>https://www.bureaustep.ru/</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>8 (912) 843-01-70</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>г Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>СТЕПЬ - студия дизайна интерьера из Оренбурга. Наш подход - это не дизайн ради дизайна, мы работаем глубже и создаем современные и функциональные пространства, отражающие характер заказчика. Мы всегда прислушиваемся к людям и создаем индивидуальный дизайн для каждого.
+Мы являемся дипломированными архитекторами и имеем 4х летний опыт работы.</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн летней кухни, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Ремонт квартиры, Экодизайн, Элитный ремонт, Архитектурное проектирование</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>г Оренбург, Екатеринбург, Казань, Краснодар, Москва, Нижний Новгород, Оренбург, Ростов-на-Дону, Самара, Санкт-Петербург, Тюмень, Уфа, Челябинск</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 300 - 1 500 ₽Разработка планировочного решения 300р. м2
+Полный дизайн интерьера от 1200р. м2Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Валентина Клюквина</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/valentina-klyukvina-pfvwru-pf~565932439</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>http://taplink.cc/klukvina.design</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>8 (903) 360-80-04</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Оренбург 450607</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Дизайнер интерьера</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, Планировка пространства, Проект перепланировки квартиры, Элитный ремонт, Авторский надзор, Декорирование, Помощь в выборе при покупке жилья</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>г. Москва и Московская обл., г. Самара, г. Севастополь, г. Оренбург</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 900 - 2 500 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>SASHA SEMAGINA</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/sasha-semagina-pfvwru-pf~1639754263</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>http://instagram.com/sasha_semagina?utm_medium=copy_link</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>8 (987) 791-49-99</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Я Александра Семагина- дизайнер интерьера. Считаю, что дом- это отражение своих хозяев, и стремлюсь в любой интерьер привнести вашу индивидуальность! 
+Уделяю пристальное внимание деталям, регулярно посещаю мебельные выставки и блошиные рынки.
+Люблю винтажную мебель, которую часто реставрирую или перекрашиваю, давая ей вторую жизнь.
+А также мы с папой в нашей семейной мастерской создаём уникальные предметы мебели и декора, идеально подходящие в ваш интерьер и сохраняющие целостное восприятие пространства!</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн летней кухни, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Украшение дома, Экодизайн, Элитный ремонт, Дизайн мебели, Производство мебели и предметов декора, Декорирование интерьера</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Оренбург, Екатеринбург, Казань, Крым, Москва, Самара, Санкт-Петербург, Сочи, Краснодар, Нижний Новгород, Уфа, Новосибирск</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
+        <is>
+          <t>Стоимость услуг обговаривается индивидуально и зависит от сложности работ, состава дизайн-проекта и особенностей помещения.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>студия дизайна "план и дизайн"</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/studiya-dizayna-plan-i-dizayn-pfvwru-pf~757696081</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>http://www.plandizain.ru/</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>8 (903) 365-88-74</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Оренбург 460001</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Мы рисуем дизайны интерьеров для домов, ресторанов и офисов с 2014 года. За это время мы реализовали около сотни проектов, и не желаем останавливаться ни на минуту. Ведь наша задача проста – сделать каждый уголок этого мира красивым, комфортным и функциональным. Мы реализуем сначала в 3d проекте, а затем и в бетонной коробке все ваши фантазии, мысли и переживания. Эмоции движут вами при создании идей, рациональность движет нами при их воплощении. Мы создаем комфорт, эстетику и функционал вашего помещения. Все наши клиенты являются нашими друзьями. Чтобы понять вас и ваши мысли, создать то, что будет отражать вашу личность и ваш внутренний мир, мы начинаем мыслить на одной волне. Это помогает нам понимать все ваши внутренние желания и создавать именно то, что приведет вас в восторг.</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Дизайн прихожей, Дизайн развлекательного центра на заказ, План дома, План этажа, Планировка пространства, Проект гардеробной</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 400 - 850 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Марина</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/marina-pfvwru-pf~506887436</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Натали</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/natali-pfvwru-pf~1797864718</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>632605</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Оренбург 460056</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Бахти</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/bahti-pfvwru-pf~849488322</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>265385</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Оренбург 560789</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/aleksey-pfvwru-pf~1100819199</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>http://wnalex.ilconte.ru/,http://vatikam.com/</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>8 (961) 923-94-62</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Услуга частный дизайн:
+Создание дизайн-проекта вашего дома или квартиры для последующего ремонта:
+-Модернизация дома,квартиры.
+-Подбор идеального для Вас цветового решения.
+-Визуальное увеличение пространства при помощи цвета и света.
+-Подбор материалов для отделки.
+-Маскировка недостатков квартиры.
+-Создание индивидуального пространства,"своего"комфорта для каждого жильца .
+-Зонирование пространства.
+-Декорирование.
+-Грамотная расстановка мебели.
+-Предоставление фото реалистичной 3d визуализации будущего интерьера для оценки и коррекции дизайна.
+-Создание комплекта чертежей для ремонта.
+-Создание спецификации,ведомости отделки,где указываются наименование и количество необходимого материала для ремонта.
+-Создание в проекте развёрток комнат,для точной и понятной работы над ремонтом.
+Возможно удалённое сотрудничество,при условии предоставлении Вами фотографий помещений с замерами или чертежей ,можно от руки.
+В комплект дизайн-проекта входит только необходимые Вам элементы.Комплектацию можно уменьшить,что ,соответственно, ускорит сроки исполнения и уменьшит цену услуги.Сроки зависят от сложности и необходимого качества,пожеланий по дизайну.
+Перед началом работы над дизайн-проектом создаётся техническое задание или заполняется анкета,где указываются ваши индивидуальные пожелания по дизайну,особенности.
+Подписывается договор на услуги по дизайну.
+Способ оплаты: 50% в начале сотрудничества и 50% после утверждения дизайн-проекта Вами,то есть заказчиком услуги.</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Дизайн интерьеров,фотореалистичная 3д-визуализация интерьеров и экстерьеров в программе 3ds max(v-ray,corona render).Создание анимационных 3д видеороликов,монтаж видео.Моделирование в 3д.Создание 3д панорамм и 3д туров на основе 3д визуализации.</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Любая страна и любой город</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 3 000 - 60 000 ₽цена зависит от сложности работы,детализации, качества.от того что требуется клиенту.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Kseniy</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kseniy-pfvwru-pf~1511498246</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>79871959713</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Orenburg 460052</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Дизайн, отделка, фасад,кровля.</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Дизайн, отделка, фасад,кровля.</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Оренбург,Оренбургская облась.</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Филин</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/filin-pfvwru-pf~405952443</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>8 (911) 144-39-25</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>..........</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/pfvwru-pf~918442436</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr"/>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>8 (999) 607-16-51</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 460051</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H113" t="inlineStr"/>
+      <c r="I113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Валентина Valli_fox</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/valentina-valli-fox-pfvwru-pf~1865633808</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>8 (917) 418-27-21</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Настя</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/nastya-pfvwru-pf~756559461</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>8 (922) 546-51-20</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Marina Toropova</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/marina-toropova-pfvwru-pf~405038507</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>8 (999) 109-66-76</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Ромашка</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/romashka-pfvwru-pf~2117117332</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>8 (987) 845-28-66</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Оренбург 460056</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Юлия</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/yuliya-pfvwru-pf~1008210625</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>8 (919) 853-19-74</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн ванной комнаты, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн кухни, Дизайн прихожей, План этажа</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Александр</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/aleksandr-pfvwru-pf~1797581686</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>http://cozydesign.ru</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>8 (961) 929-18-91</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Оренбург 460047</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I119" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Анастасия</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/anastasiya-pfvwru-pf~1227839187</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>8 (932) 530-59-39</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Оренбург 460026</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн и строительство мастерской, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Домашний спортзал под ключ, План дома, План этажа, Планировка пространства, Проект гардеробной, Ремонт кухни, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Кухни Место</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/kuhni-mesto-pfvwus-pf~1043155036</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>http://место.рф</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>8 (987) 345-82-42</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Дилер кухонной мебели "MESTO"</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>Custom Furniture, Custom Kitchen Cabinets, Dining Room Design, Interior Design, Kitchen Design</t>
+        </is>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Ольга Проэкт</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/olyga-proekt-pfvwru-pf~1764651423</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>http://olga_proekt_design</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>8 (922) 886-51-99</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>Оренбург 460009</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Разработка дизайн - проекта интерьера жилых и не жилых помещений.
+Стоимость 1кв.м. по полу = 500₽
+В стоимость работы входит:
+-замер;
+-согласование технического задания с заказчиком, учёт всех пожеланий и предпочтений заказчика;
+-планировочные решения;
+-цветные эскизы в 3D программе;
+-строительные чертежи;
+-распечатка альбомов с цветными эскизами , чертежами для заказчика и строителей;
+Так же предоставляется авторский надзор, и помощь в подборе материалов.
+Портфолио в instagram olga_proekt_design</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн жалюзи и занавесок на заказ, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн кухни, Дизайн прихожей, Дизайн развлекательного центра на заказ, Кухонные шкафы на заказ, Проект гардеробной, Ремонт квартиры в новостройке, Ремонт кухни, Украшение дома, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Строительство, ремонт, дизайн интерьера</t>
+        </is>
+      </c>
+      <c r="I122" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ500 - Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Владислав</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/vladislav-pfvwus-pf~92832485</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>8 (922) 530-03-07</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>Orenburg 460022</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн детской, Дизайн интерьера, Дизайн кухни</t>
+        </is>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="I123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Чудо</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/chudo-pfvwru-pf~1991405552</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>8 (987) 049-54-31</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>Уфа 460060</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Уфа</t>
+        </is>
+      </c>
+      <c r="I124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Алексей</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/aleksey-pfvwru-pf~883494997</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>8 (922) 864-81-44</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>Оренбург 461447</t>
+        </is>
+      </c>
+      <c r="G125" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I125" t="inlineStr"/>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Гарант Сервис Строй</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/garant-servis-stroy-pfvwru-pf~348466249</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>https://garantservicestroi.tilda.ws</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>8 (353) 290-16-31</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Дизайн интерьера, Проектирование домов. Разработка детального дизайн проекта. Дизайнерский ремонт под ключ.</t>
+        </is>
+      </c>
+      <c r="G126" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн летней кухни, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Консультация по цвету, Организация хранения в доме на заказ, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Ремонт квартиры, Ремонт кухни, Экодизайн, Элитный ремонт, Дизайн квартиры, Дизайн дома</t>
+        </is>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Оренбург, Казань, Краснодар, Нижний Новгород, Самара, Сочи, Стерлитамак, Уфа</t>
+        </is>
+      </c>
+      <c r="I126" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 750 - 2 000 ₽Стоимость зависит от проработки дизайн проекта. Предусмотрена система скидок. На данный момент на детальный дизайн-проект действует скидка - 35%, на экслюзивный дизайн квартиры, дома - 20%. Срок дейтвия акции ограничен. Подробности уточняйте на сайте или по телефону.Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>кухни</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kuhni-pfvwru-pf~1167772421</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>8 (353) 254-04-25</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Оренбург 460520</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr"/>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>3D dizainer</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/3d-dizainer-pfvwru-pf~1706156493</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>+380 95 707 1064</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Херсон 73011</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн жалюзи и занавесок на заказ, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Домашний спортзал под ключ, Консультация по цвету, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr"/>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Евгения</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/evgeniya-pfvwru-pf~882805881</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>8 (912) 846-14-43</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>Оренбург 460009</t>
+        </is>
+      </c>
+      <c r="G129" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I129" t="inlineStr"/>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>INDIVID DESIGN</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/individ-design-pfvwru-pf~791829844</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>https://individdesign.ru/</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>8 (919) 840-15-14</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>Оренбург 460508</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Мы занимаемся дизайном интерьера квартир, домов и коммерческих пространств!</t>
+        </is>
+      </c>
+      <c r="G130" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Проект перепланировки квартиры, Украшение дома, Экодизайн, Элитный ремонт, Встроенная мебель на заказ, Дизайн  лоджии, Дизайн тамбура, Индивидуальный дизайн мебели под ТВ и аппаратуру, Книжные шкафы на заказ, Кухонный шкаф на заказ, Мебель на заказ, Чертежи на заказ, Дизайн гардеробной, Дизайн детской, Дизайн развлекательного центра на заказ</t>
+        </is>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Оренбург, Москва, Санкт-Петербург, Казань, Сочи, Крым, Бузулук, Соль-Илецк, Екатеринбург, Пушкино</t>
+        </is>
+      </c>
+      <c r="I130" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 500 - 1 000 ₽за квадратный метрРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>YourSpace</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/yourspace-pfvwru-pf~1865044044</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>http://www.instagram.com/your_space56/?hl=ru</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>8 (922) 625-41-08</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Над каждым нашим проектом работает команда дизайнеров в тесном взаимодействии с заказчиком. Каждый предмет мебели и оборудования, изображенный на фотореалистичных изображениях, бережно и грамотно подобран в рамках задуманной концепции и выделенного бюджета на реализацию проекта. Так, еще на этапе проектирования, вы сможете увидеть, как будет выглядеть ваш интерьер, получить сметную стоимость и рассчитать свое время и средства на предстоящий ремонт. Мы внимательно относимся к оценке бюджета реализации проекта еще на этапе его разработки, поэтому в конечном результате, вы, с нашей помощью, можете с легкостью воплотить задуманное.</t>
+        </is>
+      </c>
+      <c r="G131" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн кладовок, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Консультация по цвету, План дома, План этажа, Планировка пространства, Проект гардеробной, Украшение дома, Чертежи на заказ, Экодизайн, Архитектурная визуализация, Ландшафтный дизайн</t>
+        </is>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I131" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 700 - 1 200 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Design home MIrina</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/design-home-mirina-pfvwru-pf~381968552</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>8 (922) 886-47-78</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G132" t="inlineStr">
+        <is>
+          <t>Дизайн ванной комнаты, Дизайн гостиной, Дизайн детской спальни, Дизайн интерьера, Дизайн кухни, Дизайн прихожей, Дизайн спальни, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект перепланировки квартиры, Ремонт квартиры, Ремонт кухни, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Оренбург, Кувандык, Медногорск, Самара, Саракташ, Уфа</t>
+        </is>
+      </c>
+      <c r="I132" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Наталия</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/nataliya-pfvwru-pf~187491802</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>8 (903) 392-55-85</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G133" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I133" t="inlineStr"/>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Олег Кудинов</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/oleg-kudinov-pfvwru-pf~221109473</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>8 (987) 888-77-21</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Оренбург 560000</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн детской, Дизайн кладовок, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн тамбура, Планировка пространства, Проект гардеробной, Чертежи на заказ, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Borisov Vladimir</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/borisov-vladimir-pfvwru-pf~1864834212</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>8 (915) 016-40-66</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>Orenburg 460507</t>
+        </is>
+      </c>
+      <c r="G135" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Orenburg</t>
+        </is>
+      </c>
+      <c r="I135" t="inlineStr"/>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>3D визуализатор</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/3d-vizualizator-pfvwru-pf~2118447092</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>https://vk.link/public212885084</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>8 (987) 859-84-67</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>Оренбург 460024</t>
+        </is>
+      </c>
+      <c r="G136" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера</t>
+        </is>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Москва, Оренбург, Сочи</t>
+        </is>
+      </c>
+      <c r="I136" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 300 - 1 000 ₽300р. Пакет - Эконом предлагает:
+- 1 Бесплатная правка на каждый ракурс.
+- 3 Ракурса.
+- Качество рендеров 1500px по большей стороне
+- Аналоги моделей.
+- Время в работе над проектом - не больше 3 дней.
+- Работа в порядке очереди
+450р. Базовый пакет услуг предлагает:
+- 3 Бесплатных правки на каждый ракурс
+- 5 Ракурсов
+- Качество рендеров FULL-HD (1920-1080)
+- Аналоги моделей и/или платные модели на ваше усмотрение
+- Время в работе над проектом - не больше 5 дней.
+1000р. VIP пакет услуг предлагаеРазвернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>WEBER</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/weber-pfvwus-pf~915133764</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr"/>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>8 (908) 324-00-96</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>Оrenburg 460014</t>
+        </is>
+      </c>
+      <c r="G137" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Оrenburg</t>
+        </is>
+      </c>
+      <c r="I137" t="inlineStr"/>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Юрий</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/yuriy-pfvwru-pf~1890327611</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>+380 50 494 1981</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>Херсон 75101</t>
+        </is>
+      </c>
+      <c r="G138" t="inlineStr">
+        <is>
+          <t>Выбор мебели, Дизайн ванной комнаты, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн кухни, Дизайн прихожей, Дизайн тамбура, Домашний бар на заказ, Книжные шкафы на заказ, Кухонные шкафы на заказ, Мебель на заказ, Модульная мебель на заказ, Полки на заказ, Проект гардеробной, Туалетный столик на заказ, Чертежи на заказ, Шкаф-кровать на заказ, Шкафы на заказ, Экологичное (зеленое) строительство, Энергосберегающие дома</t>
+        </is>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+      <c r="I138" t="inlineStr"/>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>VIKTORIA MYAGKOVA</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/viktoria-myagkova-pfvwru-pf~28018779</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>http:///www.instagram.com/brachnikviktoria/</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>8 (987) 854-62-50</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Разработка дизайн-проектов архитектуры и интерьера, консультирование и подбор отделочных материалов. Комплектация коммерческих и частных объектов. Авторский надзор
+География работ:
+Оренбург и другие города России</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн кухни, Дизайн освещения, Планировка пространства</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
+        <is>
+          <t>Подписчик: 1Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Мария</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/mariya-pfvwru-pf~346608373</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>+380 50 554 5474</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>ХЕРСОН 73028</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>ХЕРСОН, херсон</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr"/>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Гагарин Юрий</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/gagarin-yuriy-pfvwru-pf~1262145718</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>https://vk.com/stylegagarin</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>8 (905) 888-89-54</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Выполняем дизайн интерьера
+В стоимость разработки дизайна интерьера входит:
+- замер
+- согласование задания с заказчиком, учет всех пожеланий и предложений; 
+- планировочные решения
+- цветные эскизы в электронном, распечатанном виде;
+- строительные чертежи. (планы, развертки)
+Дополнительная услуга - Авторский надзор (помощь в подборе материалов и мебели, сверка ремонта с проектом, периодические выезды на объект с целью осуществления контроля, консультирования заказчика до окончания ремонта). 
+(стоимость по договоренности).
+Имеются пакеты предложений – СТАНДАРТ и ЭКОНОМ.
+Имеется бригада отделочников с прямыми руками и ответственным прорабом.</t>
+        </is>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Ремонт кухни</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I141" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ500 - м2Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Валентина Клюквина</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/valentina-klyukvina-pfvwru-pf~1202554644</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>8 (903) 360-80-04</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>Оренбург 460507</t>
+        </is>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I142" t="inlineStr"/>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Елена</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/elena-pfvwru-pf~1169752253</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>8 (987) 847-22-17</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+      <c r="G143" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гардеробной/кладовой, Дизайн гостиной, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство застекленной террасы, Дизайн игровой комнаты, Дизайн интерьера, Дизайн комнаты для малыша, Дизайн кухни, Дизайн лестницы, Дизайн освещения, Дизайн прихожей, Дизайн спальни, Домашний спортзал под ключ, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Проект гардеробной, Ремонт квартиры, Ремонт кухни, Украшение дома, Хранение велосипедов, Экодизайн, Экологичное (зеленое) строительство, Элитный ремонт, Энергосберегающий дом</t>
+        </is>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I143" t="inlineStr"/>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>DEСO ROOM</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/deso-room-pfvwru-pf~437974838</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>http://decoroom56.ru/</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>8 (353) 245-13-15</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Декорум №1 в дизайне интерьера!
+Почему?
+…Потому что:
+В Декоруме работают профессионалы в создании интерьера
+Мы гарантируем Клиентам возможность уверенно сориентироваться в многообразии декоративных материалов и выбрать оптимальный вариант по цене и качеству
+Ваш собственный интерьер создается в творческой атмосфере Декорум</t>
+        </is>
+      </c>
+      <c r="G144" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кухни, Планировка пространства</t>
+        </is>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I144" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 600 - 2 000 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Анна Миганова</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/anna-miganova-pfvwru-pf~1511825006</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>8 (922) 871-71-61</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Создам интерьер с вашим характером
+▪️ Визуализация
+▪️ Подбор материалов
+▪️ Сопровождение</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн прихожей, Консультация по цвету, План дома, Планировка пространства, Экодизайн, Элитный ремонт, Выбор мебели, Дизайн гардеробной, Дизайн детской, Дизайн тамбура</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Площадь дизайн студия</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ploshchady-dizayn-studiya-pfvwru-pf~941663627</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>8 (912) 843-01-70</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Оренбург 460530</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Мы любим нашу работу  , и делаем всё что бы заказчик остался доволен , на наших визуализациях вы увидите как будет выглядеть ваш интерьер еще на этапе проектирования . Мы  трезво отнесемся к вашему бюджету и  вы с нашей помощью легко  сможете реализовать задуманное .</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Выбор мебели, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн гардеробной, Дизайн детской, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Дизайн развлекательного центра на заказ, Дизайн тамбура, Домашний спортзал под ключ, Книжные шкафы на заказ, Консультация по цвету, Мебель на заказ, План дома, План этажа, Планировка пространства, Украшение дома, Чертежи на заказ, Экодизайн</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Елена Вельдбрехт</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/elena-velydbreht-pfvwru-pf~1328252112</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>+380 50 640 3088</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>Херсон 73000</t>
+        </is>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Дизайн детской, Консультация по цвету, Планировка пространства, Украшение дома</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Херсон</t>
+        </is>
+      </c>
+      <c r="I147" t="inlineStr"/>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>ДОМ строй</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dom-stroy-pfvwru-pf~1353702435</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>8 (919) 863-24-32</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>Оренбург 460052</t>
+        </is>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I148" t="inlineStr"/>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Павел Лукьянов</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/pavel-lukyyanov-pfvwru-pf~976929946</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>8 (903) 395-61-61</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн гостиной, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн интерьера, Дизайн кухни, Дизайн спальни, Консультация дизайнера, План дома, План этажа, Планировка пространства, Подбор мебели, Предпродажная подготовка квартиры, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I149" t="inlineStr"/>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Дизайнер</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/hznb/professionaly/dizaynery-interyera/dizayner-pfvwru-pf~1639393495</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>8 (903) 395-07-53</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Дизайн интерьера</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I150" t="inlineStr"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>archi_design_project</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/archi-design-project-pfvwru-pf~96544141</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>http://project3870113.tilda.ws/page18305284.html</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>8 (996) 925-99-14</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн интерьера, Консультация дизайнера, Консультация по цвету, План дома, План этажа, Планировка пространства, Подбор мебели, Ремонт квартиры, Элитный ремонт</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Москва, Оренбург</t>
+        </is>
+      </c>
+      <c r="I151" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 1 000 - 3 000 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Кристина Барскова</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/kristina-barskova-pfvwru-pf~1705831085</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>8 (922) 855-22-84</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>Оренбург 450607</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Дизайн интерьера, визуализация, комплектация</t>
+        </is>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I152" t="inlineStr">
+        <is>
+          <t>Подписчиков: 2Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>дизайнер</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/dizayner-pfvwru-pf~1479254143</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>http://vk.com/lro56</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>8 (953) 832-22-31</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>Оренбург 460003</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>- план(розетки,выключатели,освещения) 
+- расчет материалов по квадратуре 
+- картинки 
+- документы на расчет помещения 
+- авторский надзор
+- декорирование</t>
+        </is>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн ванной комнаты, Дизайн винного погреба, Дизайн детской спальни, Дизайн для людей с ограниченной мобильностью, Дизайн и строительство мастерской, Дизайн игровой комнаты, Дизайн кухни, Дизайн освещения, Дизайн прихожей, Домашний спортзал под ключ, Консультация по цвету, План дома, Планировка пространства, Проект гардеробной, Ремонт кухни, Украшение дома, Экодизайн, Выбор мебели, Дизайн  лоджии, Дизайн детской, Дизайн жалюзи и занавесок на заказ, Дизайн кладовок, Дизайн тамбура, Евроремонт, Ремонт квартиры в новостройке, Услуги частного прораба, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I153" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: 300 - 400 ₽Развернуть</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Архитектурная мастерская М2</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/arhitekturnaya-masterskaya-m2-pfvwru-pf~1639276027</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>http://</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>8 (922) 624-54-55</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Дизайнеры интерьера</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
+        <is>
+          <t>Подписчиков: 0Подписаться</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Ad-studio</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.houzz.ru/professionaly/dizaynery-interyera/ad-studio-pfvwru-pf~1226262251</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>http://www.ad-studios.ru</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>8 (903) 395-06-07</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Оренбург 460000</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>Мы уделяем большое внимание мелочам, поэтому в наших интерьерах
+всегда присутствует уют и гармония</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Визуализация интерьера, Дизайн  лоджии, Дизайн ванной комнаты, Дизайн детской, Дизайн детской спальни, Дизайн игровой комнаты, Дизайн кладовок, Дизайн кухни, Дизайн освещения, Дизайн развлекательного центра на заказ, Консультация по цвету, План этажа, Планировка пространства, Предпродажная подготовка квартиры, Проект гардеробной, Чертежи на заказ</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Оренбург</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
+        <is>
+          <t>Средняя стоимость работ: РУБ350 - Развернуть</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
